--- a/vbai-fhir/ValueSet-EducationLevel.xlsx
+++ b/vbai-fhir/ValueSet-EducationLevel.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-15T16:24:43+00:00</t>
+    <t>2023-10-04T03:12:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-EducationLevel.xlsx
+++ b/vbai-fhir/ValueSet-EducationLevel.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T03:12:19+00:00</t>
+    <t>2023-10-04T15:51:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-EducationLevel.xlsx
+++ b/vbai-fhir/ValueSet-EducationLevel.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T15:51:42+00:00</t>
+    <t>2024-01-15T14:38:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-EducationLevel.xlsx
+++ b/vbai-fhir/ValueSet-EducationLevel.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T14:38:18+00:00</t>
+    <t>2024-02-07T17:12:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
